--- a/Spiel/Spezifikation/Funktionalitaetsliste-29_06_16.xlsx
+++ b/Spiel/Spezifikation/Funktionalitaetsliste-29_06_16.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27224"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dominikus/Documents/root/Spiel/Spezifikation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\Bardia\Desktop\Neuer Ordner\Spiel\Spezifikation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="460" windowWidth="27380" windowHeight="17540"/>
+    <workbookView xWindow="1425" yWindow="465" windowWidth="27375" windowHeight="17535"/>
   </bookViews>
   <sheets>
     <sheet name="Planung" sheetId="1" r:id="rId1"/>
@@ -19,18 +19,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="141">
   <si>
     <t>ID</t>
   </si>
@@ -458,7 +458,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -542,7 +542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -822,22 +822,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="33" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="12" style="6" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="2" customWidth="1"/>
-    <col min="7" max="8" width="20.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -863,7 +863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -883,7 +883,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -906,7 +906,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -929,7 +929,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -941,7 +941,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -959,7 +959,7 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>64</v>
       </c>
@@ -977,7 +977,7 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>66</v>
       </c>
@@ -996,7 +996,7 @@
       <c r="F8" s="4"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>68</v>
       </c>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>70</v>
       </c>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>113</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>40</v>
@@ -1126,7 +1126,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>113</v>
@@ -1146,7 +1146,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>28</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>96</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>36</v>
       </c>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>38</v>
       </c>
@@ -1309,13 +1309,13 @@
         <v>113</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>46</v>
       </c>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>48</v>
       </c>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>54</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>55</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>82</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>91</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>50</v>
       </c>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>58</v>
       </c>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>60</v>
       </c>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>62</v>
       </c>
@@ -1494,19 +1494,22 @@
       </c>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="D36" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="E36" s="6" t="s">
         <v>99</v>
       </c>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>86</v>
       </c>
@@ -1516,12 +1519,15 @@
       <c r="C37" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="D37" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="E37" s="6" t="s">
         <v>99</v>
       </c>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>88</v>
       </c>
@@ -1531,12 +1537,15 @@
       <c r="C38" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="D38" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="E38" s="6" t="s">
         <v>99</v>
       </c>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>52</v>
       </c>
@@ -1551,7 +1560,7 @@
       </c>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>53</v>
       </c>
@@ -1561,12 +1570,15 @@
       <c r="C40" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="D40" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="E40" s="6" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>110</v>
       </c>
@@ -1576,12 +1588,15 @@
       <c r="C41" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="D41" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="E41" s="6" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>111</v>
       </c>
@@ -1591,12 +1606,15 @@
       <c r="C42" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="D42" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="E42" s="6" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>72</v>
       </c>
@@ -1611,7 +1629,7 @@
       </c>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>74</v>
       </c>
@@ -1629,7 +1647,7 @@
       </c>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>76</v>
       </c>
@@ -1647,7 +1665,7 @@
       </c>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>112</v>
       </c>
@@ -1665,7 +1683,7 @@
       </c>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>78</v>
       </c>
@@ -1676,7 +1694,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>119</v>
       </c>
@@ -1693,7 +1711,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>121</v>
       </c>
@@ -1701,7 +1719,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>123</v>
       </c>
@@ -1709,7 +1727,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>125</v>
       </c>
@@ -1717,7 +1735,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>128</v>
       </c>
@@ -1731,7 +1749,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>130</v>
       </c>
@@ -1748,7 +1766,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>132</v>
       </c>
@@ -1765,7 +1783,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>134</v>
       </c>
@@ -1773,7 +1791,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>137</v>
       </c>

--- a/Spiel/Spezifikation/Funktionalitaetsliste-29_06_16.xlsx
+++ b/Spiel/Spezifikation/Funktionalitaetsliste-29_06_16.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias\Desktop\Uni\Uni Essen\SEP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Neuer Ordner (2)\Spiel\Spezifikation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="153">
   <si>
     <t>ID</t>
   </si>
@@ -468,12 +468,30 @@
   </si>
   <si>
     <t>Bereich 3</t>
+  </si>
+  <si>
+    <t>10.1.2.2</t>
+  </si>
+  <si>
+    <t>Charaktermodelle</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>Skillbilder</t>
+  </si>
+  <si>
+    <t>10.1.2.3</t>
+  </si>
+  <si>
+    <t>Farbvariationen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -835,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,13 +1091,13 @@
         <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="F12" s="4"/>
     </row>
@@ -1741,6 +1759,9 @@
       <c r="B50" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="C50" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="D50" s="2" t="s">
         <v>116</v>
       </c>
@@ -1755,6 +1776,9 @@
       <c r="B51" s="2" t="s">
         <v>145</v>
       </c>
+      <c r="C51" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="D51" s="2" t="s">
         <v>118</v>
       </c>
@@ -1769,6 +1793,9 @@
       <c r="B52" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C52" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="D52" s="2" t="s">
         <v>118</v>
       </c>
@@ -1783,41 +1810,44 @@
       <c r="B53" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="E53" s="6" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>125</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>126</v>
+        <v>148</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>42</v>
@@ -1825,27 +1855,21 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>118</v>
@@ -1856,15 +1880,63 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>118</v>
       </c>
       <c r="E59" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>42</v>
       </c>
     </row>
